--- a/src/OLAP/DataSources/BSV.Profit.xlsx
+++ b/src/OLAP/DataSources/BSV.Profit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\git\Luxena.Travel\src\OLAP\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B59943-4347-4FDE-8229-44B19DAE8B47}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8936F862-444C-4199-8A79-3F4C0005F33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BSV OLAP" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="D:\data\git\Luxena.Travel\src\OLAP\DataSources\BSV OLAP.odc" keepAlive="1" name="BSV Travel Документы" type="5" refreshedVersion="6" background="1">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="D:\data\git\Luxena.Travel\src\OLAP\DataSources\BSV OLAP.odc" keepAlive="1" name="BSV Travel Документы" type="5" refreshedVersion="7" background="1">
     <dbPr connection="Provider=MSOLAP.8;Persist Security Info=True;User ID=SRV01\bsv;Initial Catalog=BSV Travel;Data Source=analysis.travel.smartikum.com;Location=analysis.travel.smartikum.com;MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error;Update Isolation Level=2" command="Документы" commandType="1"/>
     <olapPr sendLocale="1" rowDrillCount="1000"/>
   </connection>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Доход</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
   </si>
 </sst>
 </file>
@@ -695,12 +698,12 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="44378.50118900463" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF10000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="44569.958420254632" backgroundQuery="1" createdVersion="6" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF10000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Доход]" caption="Доход" numFmtId="0" hierarchy="115" level="32767"/>
     <cacheField name="[Дата].[Год].[Год]" caption="Год" numFmtId="0" hierarchy="16" level="1">
-      <sharedItems count="15">
+      <sharedItems count="16">
         <s v="[Дата].[Год].&amp;[2007]" c="2007"/>
         <s v="[Дата].[Год].&amp;[2008]" c="2008"/>
         <s v="[Дата].[Год].&amp;[2009]" c="2009"/>
@@ -716,6 +719,7 @@
         <s v="[Дата].[Год].&amp;[2019]" c="2019"/>
         <s v="[Дата].[Год].&amp;[2020]" c="2020"/>
         <s v="[Дата].[Год].&amp;[2021]" c="2021"/>
+        <s v="[Дата].[Год].&amp;[2022]" c="2022"/>
       </sharedItems>
     </cacheField>
     <cacheField name="[Дата].[Месяц].[Месяц]" caption="Месяц" numFmtId="0" hierarchy="20" level="1">
@@ -937,12 +941,12 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A1:Q15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A1:R15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="15">
+      <items count="16">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -958,6 +962,7 @@
         <item x="12"/>
         <item x="13"/>
         <item x="14"/>
+        <item x="15"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -1024,7 +1029,7 @@
   <colFields count="1">
     <field x="1"/>
   </colFields>
-  <colItems count="16">
+  <colItems count="17">
     <i>
       <x/>
     </i>
@@ -1069,6 +1074,9 @@
     </i>
     <i>
       <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
     </i>
     <i t="grand">
       <x/>
@@ -1516,9 +1524,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
@@ -1528,26 +1536,28 @@
     <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="16" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="17" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1555,7 +1565,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1605,10 +1615,13 @@
         <v>30</v>
       </c>
       <c r="Q2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -1633,7 +1646,7 @@
         <v>158399.56999999983</v>
       </c>
       <c r="J3" s="3">
-        <v>138337.67000000001</v>
+        <v>138337.66999999998</v>
       </c>
       <c r="K3" s="3">
         <v>217155.08000000002</v>
@@ -1648,16 +1661,19 @@
         <v>251238.75999999992</v>
       </c>
       <c r="O3" s="3">
-        <v>249624.22</v>
+        <v>249624.21999999997</v>
       </c>
       <c r="P3" s="3">
         <v>126462.29999999994</v>
       </c>
       <c r="Q3" s="3">
-        <v>2234586.2714</v>
+        <v>13259.469999999998</v>
+      </c>
+      <c r="R3" s="3">
+        <v>2247845.7413999997</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -1676,7 +1692,7 @@
         <v>190793.68999999971</v>
       </c>
       <c r="H4" s="3">
-        <v>147319.16000000006</v>
+        <v>147319.16000000003</v>
       </c>
       <c r="I4" s="3">
         <v>195598.87999999998</v>
@@ -1702,11 +1718,12 @@
       <c r="P4" s="3">
         <v>117972.26000000001</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3">
         <v>2584604.0015999991</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
@@ -1725,16 +1742,16 @@
         <v>174782.29999999996</v>
       </c>
       <c r="H5" s="3">
-        <v>196855.39999999997</v>
+        <v>196855.40000000002</v>
       </c>
       <c r="I5" s="3">
         <v>153481.77999999997</v>
       </c>
       <c r="J5" s="3">
-        <v>307481.68</v>
+        <v>307481.67999999993</v>
       </c>
       <c r="K5" s="3">
-        <v>266700.42999999993</v>
+        <v>266700.43</v>
       </c>
       <c r="L5" s="3">
         <v>242577.98999999996</v>
@@ -1751,11 +1768,12 @@
       <c r="P5" s="3">
         <v>220389.48</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3">
         <v>2829379.7810999998</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -1774,7 +1792,7 @@
         <v>171336.27000000005</v>
       </c>
       <c r="H6" s="3">
-        <v>202298.93999999989</v>
+        <v>202298.93999999994</v>
       </c>
       <c r="I6" s="3">
         <v>131881.42999999991</v>
@@ -1783,10 +1801,10 @@
         <v>170653.72999999998</v>
       </c>
       <c r="K6" s="3">
-        <v>285748.5199999999</v>
+        <v>285748.51999999996</v>
       </c>
       <c r="L6" s="3">
-        <v>189911.27999999994</v>
+        <v>189911.27999999991</v>
       </c>
       <c r="M6" s="3">
         <v>275183.53999999986</v>
@@ -1798,13 +1816,14 @@
         <v>254</v>
       </c>
       <c r="P6" s="3">
-        <v>180667.36999999991</v>
-      </c>
-      <c r="Q6" s="3">
+        <v>180667.36999999988</v>
+      </c>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3">
         <v>2520004.8054999998</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
@@ -1823,7 +1842,7 @@
         <v>175477.80999999988</v>
       </c>
       <c r="H7" s="3">
-        <v>189204.39</v>
+        <v>189204.38999999981</v>
       </c>
       <c r="I7" s="3">
         <v>174793.39999999991</v>
@@ -1832,10 +1851,10 @@
         <v>226476.37999999998</v>
       </c>
       <c r="K7" s="3">
-        <v>290242.96999999974</v>
+        <v>290242.96999999968</v>
       </c>
       <c r="L7" s="3">
-        <v>224334.05999999991</v>
+        <v>224334.05999999994</v>
       </c>
       <c r="M7" s="3">
         <v>259558.20999999988</v>
@@ -1847,13 +1866,14 @@
         <v>7328.4299999999994</v>
       </c>
       <c r="P7" s="3">
-        <v>205115.00000000012</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>2590254.0709999995</v>
+        <v>211595.00000000009</v>
+      </c>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3">
+        <v>2596734.0709999995</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -1881,7 +1901,7 @@
         <v>200904.07000000018</v>
       </c>
       <c r="K8" s="3">
-        <v>237637.53000000026</v>
+        <v>237637.53000000023</v>
       </c>
       <c r="L8" s="3">
         <v>202339.77000000005</v>
@@ -1896,13 +1916,14 @@
         <v>13115.6</v>
       </c>
       <c r="P8" s="3">
-        <v>344219.84999999969</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>2652550.9362000008</v>
+        <v>334557.71999999962</v>
+      </c>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3">
+        <v>2642888.8062000005</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
@@ -1921,22 +1942,22 @@
         <v>181920.4800000001</v>
       </c>
       <c r="H9" s="3">
-        <v>225020.98999999987</v>
+        <v>225020.9899999999</v>
       </c>
       <c r="I9" s="3">
-        <v>216037.83</v>
+        <v>216037.82999999996</v>
       </c>
       <c r="J9" s="3">
-        <v>249565.5799999999</v>
+        <v>249565.57999999993</v>
       </c>
       <c r="K9" s="3">
-        <v>267975.60000000009</v>
+        <v>267975.60000000021</v>
       </c>
       <c r="L9" s="3">
-        <v>183779.88000000003</v>
+        <v>183779.88000000006</v>
       </c>
       <c r="M9" s="3">
-        <v>239998.55</v>
+        <v>239998.54999999996</v>
       </c>
       <c r="N9" s="3">
         <v>311354.56999999995</v>
@@ -1944,12 +1965,15 @@
       <c r="O9" s="3">
         <v>71497.899999999994</v>
       </c>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3">
-        <v>2556036.9982000003</v>
+      <c r="P9" s="3">
+        <v>219053.52000000002</v>
+      </c>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3">
+        <v>2775090.5182000007</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
@@ -1959,7 +1983,7 @@
         <v>182727.50000000017</v>
       </c>
       <c r="E10" s="3">
-        <v>204497.72549999988</v>
+        <v>204497.72549999991</v>
       </c>
       <c r="F10" s="3">
         <v>203716.70000000022</v>
@@ -1968,7 +1992,7 @@
         <v>221360.72000000018</v>
       </c>
       <c r="H10" s="3">
-        <v>185010.87000000002</v>
+        <v>185010.87000000005</v>
       </c>
       <c r="I10" s="3">
         <v>158310.23000000021</v>
@@ -1977,7 +2001,7 @@
         <v>276168.66000000003</v>
       </c>
       <c r="K10" s="3">
-        <v>226600.16000000018</v>
+        <v>226600.16000000021</v>
       </c>
       <c r="L10" s="3">
         <v>186602.12999999998</v>
@@ -1991,12 +2015,15 @@
       <c r="O10" s="3">
         <v>110102.69000000003</v>
       </c>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3">
-        <v>2553436.5055000004</v>
+      <c r="P10" s="3">
+        <v>247676.78000000012</v>
+      </c>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3">
+        <v>2801113.2855000012</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -2020,10 +2047,10 @@
         <v>211054.93999999986</v>
       </c>
       <c r="I11" s="3">
-        <v>197472.96999999994</v>
+        <v>197472.96999999997</v>
       </c>
       <c r="J11" s="3">
-        <v>218498.73000000021</v>
+        <v>218498.73000000019</v>
       </c>
       <c r="K11" s="3">
         <v>273871.35999999993</v>
@@ -2035,17 +2062,20 @@
         <v>256319.18000000002</v>
       </c>
       <c r="N11" s="3">
-        <v>237436.72999999998</v>
+        <v>237436.73</v>
       </c>
       <c r="O11" s="3">
-        <v>80817.509999999995</v>
-      </c>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3">
-        <v>2632268.1800000002</v>
+        <v>80817.510000000024</v>
+      </c>
+      <c r="P11" s="3">
+        <v>258719.74000000011</v>
+      </c>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3">
+        <v>2890987.9200000004</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -2066,10 +2096,10 @@
         <v>195827.50000000003</v>
       </c>
       <c r="H12" s="3">
-        <v>210968.86999999988</v>
+        <v>210968.86999999994</v>
       </c>
       <c r="I12" s="3">
-        <v>205239.66000000003</v>
+        <v>205239.66000000006</v>
       </c>
       <c r="J12" s="3">
         <v>223873.06</v>
@@ -2084,17 +2114,20 @@
         <v>272046.38</v>
       </c>
       <c r="N12" s="3">
-        <v>274089.6399999999</v>
+        <v>274089.63999999996</v>
       </c>
       <c r="O12" s="3">
         <v>108238.53000000001</v>
       </c>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3">
-        <v>2598753.4800000004</v>
+      <c r="P12" s="3">
+        <v>276518.62000000005</v>
+      </c>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3">
+        <v>2875272.1000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -2112,16 +2145,16 @@
         <v>190891.72000000006</v>
       </c>
       <c r="G13" s="3">
-        <v>172841.88000000006</v>
+        <v>172841.88000000003</v>
       </c>
       <c r="H13" s="3">
-        <v>223204.42999999988</v>
+        <v>223204.42999999985</v>
       </c>
       <c r="I13" s="3">
         <v>186864.88000000003</v>
       </c>
       <c r="J13" s="3">
-        <v>180952.13999999993</v>
+        <v>180952.13999999998</v>
       </c>
       <c r="K13" s="3">
         <v>327374.11</v>
@@ -2136,14 +2169,17 @@
         <v>287342.68</v>
       </c>
       <c r="O13" s="3">
-        <v>59803.30999999999</v>
-      </c>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3">
-        <v>2613171.2579999999</v>
+        <v>59804.30999999999</v>
+      </c>
+      <c r="P13" s="3">
+        <v>239050.33000000005</v>
+      </c>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3">
+        <v>2852222.588</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -2161,25 +2197,25 @@
         <v>194017.46000000002</v>
       </c>
       <c r="G14" s="3">
-        <v>122079.25999999991</v>
+        <v>122079.25999999989</v>
       </c>
       <c r="H14" s="3">
-        <v>181374.58999999982</v>
+        <v>181374.58999999985</v>
       </c>
       <c r="I14" s="3">
-        <v>164338.62000000017</v>
+        <v>164338.62000000014</v>
       </c>
       <c r="J14" s="3">
-        <v>236770.01000000024</v>
+        <v>236770.01000000018</v>
       </c>
       <c r="K14" s="3">
-        <v>146546.82000000009</v>
+        <v>146546.82000000007</v>
       </c>
       <c r="L14" s="3">
         <v>240459.76</v>
       </c>
       <c r="M14" s="3">
-        <v>321261.00999999978</v>
+        <v>321261.00999999972</v>
       </c>
       <c r="N14" s="3">
         <v>265803.78000000003</v>
@@ -2187,12 +2223,15 @@
       <c r="O14" s="3">
         <v>146805.30000000002</v>
       </c>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3">
-        <v>2530678.2928000009</v>
+      <c r="P14" s="3">
+        <v>345795.20999999996</v>
+      </c>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3">
+        <v>2876473.5028000008</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
@@ -2203,7 +2242,7 @@
         <v>149027.15000000023</v>
       </c>
       <c r="D15" s="3">
-        <v>2267616.5508000003</v>
+        <v>2267616.5508000008</v>
       </c>
       <c r="E15" s="3">
         <v>2382521.2804999999</v>
@@ -2218,7 +2257,7 @@
         <v>2323869.1599999997</v>
       </c>
       <c r="I15" s="3">
-        <v>2092970.64</v>
+        <v>2092970.6400000001</v>
       </c>
       <c r="J15" s="3">
         <v>2575960.8700000006</v>
@@ -2227,22 +2266,25 @@
         <v>2959632.16</v>
       </c>
       <c r="L15" s="3">
-        <v>2651350.0600000005</v>
+        <v>2651350.060000001</v>
       </c>
       <c r="M15" s="3">
         <v>3145227.9999999995</v>
       </c>
       <c r="N15" s="3">
-        <v>3371283.6699999995</v>
+        <v>3371283.669999999</v>
       </c>
       <c r="O15" s="3">
-        <v>1277041.0800000003</v>
+        <v>1277042.0800000003</v>
       </c>
       <c r="P15" s="3">
-        <v>1194826.2599999995</v>
+        <v>2778458.33</v>
       </c>
       <c r="Q15" s="3">
-        <v>30895724.581299998</v>
+        <v>13259.469999999998</v>
+      </c>
+      <c r="R15" s="3">
+        <v>32492617.121300001</v>
       </c>
     </row>
   </sheetData>

--- a/src/OLAP/DataSources/BSV.Profit.xlsx
+++ b/src/OLAP/DataSources/BSV.Profit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\git\Luxena.Travel\src\OLAP\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8936F862-444C-4199-8A79-3F4C0005F33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E180D7A-972C-4E21-ABB0-1EC889AF9234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -698,7 +698,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="44569.958420254632" backgroundQuery="1" createdVersion="6" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF10000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="44739.890309606482" backgroundQuery="1" createdVersion="6" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF10000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Доход]" caption="Доход" numFmtId="0" hierarchy="115" level="32767"/>
@@ -1527,7 +1527,7 @@
   <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1535,26 +1535,25 @@
     <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="17" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -1628,7 +1627,7 @@
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3">
-        <v>122816.42999999998</v>
+        <v>122816.43</v>
       </c>
       <c r="E3" s="3">
         <v>141626.74139999994</v>
@@ -1640,19 +1639,19 @@
         <v>147334.36999999988</v>
       </c>
       <c r="H3" s="3">
-        <v>135527.3900000001</v>
+        <v>135527.39000000013</v>
       </c>
       <c r="I3" s="3">
         <v>158399.56999999983</v>
       </c>
       <c r="J3" s="3">
-        <v>138337.66999999998</v>
+        <v>138337.67000000001</v>
       </c>
       <c r="K3" s="3">
-        <v>217155.08000000002</v>
+        <v>217155.08</v>
       </c>
       <c r="L3" s="3">
-        <v>153573.62</v>
+        <v>153573.61999999997</v>
       </c>
       <c r="M3" s="3">
         <v>232769.65000000005</v>
@@ -1664,13 +1663,13 @@
         <v>249624.21999999997</v>
       </c>
       <c r="P3" s="3">
-        <v>126462.29999999994</v>
+        <v>126462.29999999997</v>
       </c>
       <c r="Q3" s="3">
-        <v>13259.469999999998</v>
+        <v>218185.38999999998</v>
       </c>
       <c r="R3" s="3">
-        <v>2247845.7413999997</v>
+        <v>2452771.6613999996</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -1683,7 +1682,7 @@
         <v>171214.22999999981</v>
       </c>
       <c r="E4" s="3">
-        <v>143976.9616000001</v>
+        <v>143976.96160000007</v>
       </c>
       <c r="F4" s="3">
         <v>203352.66000000003</v>
@@ -1698,10 +1697,10 @@
         <v>195598.87999999998</v>
       </c>
       <c r="J4" s="3">
-        <v>146279.16000000003</v>
+        <v>146279.16</v>
       </c>
       <c r="K4" s="3">
-        <v>221731.44999999998</v>
+        <v>221731.44999999995</v>
       </c>
       <c r="L4" s="3">
         <v>211288.27</v>
@@ -1713,14 +1712,16 @@
         <v>266018.27999999997</v>
       </c>
       <c r="O4" s="3">
-        <v>345609.77999999997</v>
+        <v>345609.78</v>
       </c>
       <c r="P4" s="3">
         <v>117972.26000000001</v>
       </c>
-      <c r="Q4" s="3"/>
+      <c r="Q4" s="3">
+        <v>278972.97999999992</v>
+      </c>
       <c r="R4" s="3">
-        <v>2584604.0015999991</v>
+        <v>2863576.9815999996</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -1751,13 +1752,13 @@
         <v>307481.67999999993</v>
       </c>
       <c r="K5" s="3">
-        <v>266700.43</v>
+        <v>266700.42999999993</v>
       </c>
       <c r="L5" s="3">
         <v>242577.98999999996</v>
       </c>
       <c r="M5" s="3">
-        <v>247666.89999999997</v>
+        <v>247666.9</v>
       </c>
       <c r="N5" s="3">
         <v>308467.88000000006</v>
@@ -1766,11 +1767,13 @@
         <v>83843.809999999969</v>
       </c>
       <c r="P5" s="3">
-        <v>220389.48</v>
-      </c>
-      <c r="Q5" s="3"/>
+        <v>221389.48</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>48121.07</v>
+      </c>
       <c r="R5" s="3">
-        <v>2829379.7810999998</v>
+        <v>2878500.8510999996</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -1786,19 +1789,19 @@
         <v>209012.66550000021</v>
       </c>
       <c r="F6" s="3">
-        <v>207835.58999999997</v>
+        <v>207835.58999999994</v>
       </c>
       <c r="G6" s="3">
         <v>171336.27000000005</v>
       </c>
       <c r="H6" s="3">
-        <v>202298.93999999994</v>
+        <v>202298.93999999997</v>
       </c>
       <c r="I6" s="3">
         <v>131881.42999999991</v>
       </c>
       <c r="J6" s="3">
-        <v>170653.72999999998</v>
+        <v>170653.72999999995</v>
       </c>
       <c r="K6" s="3">
         <v>285748.51999999996</v>
@@ -1807,7 +1810,7 @@
         <v>189911.27999999991</v>
       </c>
       <c r="M6" s="3">
-        <v>275183.53999999986</v>
+        <v>275183.53999999992</v>
       </c>
       <c r="N6" s="3">
         <v>263655.03000000009</v>
@@ -1816,11 +1819,13 @@
         <v>254</v>
       </c>
       <c r="P6" s="3">
-        <v>180667.36999999988</v>
-      </c>
-      <c r="Q6" s="3"/>
+        <v>180667.36999999985</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>106392.66</v>
+      </c>
       <c r="R6" s="3">
-        <v>2520004.8054999998</v>
+        <v>2626397.4654999995</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -1833,28 +1838,28 @@
         <v>193026.19000000009</v>
       </c>
       <c r="E7" s="3">
-        <v>199267.42100000015</v>
+        <v>199267.42100000012</v>
       </c>
       <c r="F7" s="3">
-        <v>176186.43000000008</v>
+        <v>176186.43000000005</v>
       </c>
       <c r="G7" s="3">
         <v>175477.80999999988</v>
       </c>
       <c r="H7" s="3">
-        <v>189204.38999999981</v>
+        <v>189204.38999999984</v>
       </c>
       <c r="I7" s="3">
         <v>174793.39999999991</v>
       </c>
       <c r="J7" s="3">
-        <v>226476.37999999998</v>
+        <v>226476.37999999995</v>
       </c>
       <c r="K7" s="3">
-        <v>290242.96999999968</v>
+        <v>290242.96999999974</v>
       </c>
       <c r="L7" s="3">
-        <v>224334.05999999994</v>
+        <v>224334.05999999997</v>
       </c>
       <c r="M7" s="3">
         <v>259558.20999999988</v>
@@ -1868,9 +1873,11 @@
       <c r="P7" s="3">
         <v>211595.00000000009</v>
       </c>
-      <c r="Q7" s="3"/>
+      <c r="Q7" s="3">
+        <v>199937.12</v>
+      </c>
       <c r="R7" s="3">
-        <v>2596734.0709999995</v>
+        <v>2796671.1909999992</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -1892,22 +1899,22 @@
         <v>166299.09000000011</v>
       </c>
       <c r="H8" s="3">
-        <v>216029.19</v>
+        <v>216029.19000000006</v>
       </c>
       <c r="I8" s="3">
-        <v>150551.39000000004</v>
+        <v>150551.39000000001</v>
       </c>
       <c r="J8" s="3">
-        <v>200904.07000000018</v>
+        <v>200904.07000000021</v>
       </c>
       <c r="K8" s="3">
-        <v>237637.53000000023</v>
+        <v>237637.53000000026</v>
       </c>
       <c r="L8" s="3">
         <v>202339.77000000005</v>
       </c>
       <c r="M8" s="3">
-        <v>238854.18999999986</v>
+        <v>238854.18999999989</v>
       </c>
       <c r="N8" s="3">
         <v>302391.68000000005</v>
@@ -1916,11 +1923,13 @@
         <v>13115.6</v>
       </c>
       <c r="P8" s="3">
-        <v>334557.71999999962</v>
-      </c>
-      <c r="Q8" s="3"/>
+        <v>342162.72</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>168462.57</v>
+      </c>
       <c r="R8" s="3">
-        <v>2642888.8062000005</v>
+        <v>2818956.3762000008</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1951,7 +1960,7 @@
         <v>249565.57999999993</v>
       </c>
       <c r="K9" s="3">
-        <v>267975.60000000021</v>
+        <v>267975.60000000015</v>
       </c>
       <c r="L9" s="3">
         <v>183779.88000000006</v>
@@ -1960,17 +1969,17 @@
         <v>239998.54999999996</v>
       </c>
       <c r="N9" s="3">
-        <v>311354.56999999995</v>
+        <v>311354.57</v>
       </c>
       <c r="O9" s="3">
         <v>71497.899999999994</v>
       </c>
       <c r="P9" s="3">
-        <v>219053.52000000002</v>
+        <v>219063.50000000006</v>
       </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="3">
-        <v>2775090.5182000007</v>
+        <v>2775100.4982000003</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1983,7 +1992,7 @@
         <v>182727.50000000017</v>
       </c>
       <c r="E10" s="3">
-        <v>204497.72549999991</v>
+        <v>204497.72549999994</v>
       </c>
       <c r="F10" s="3">
         <v>203716.70000000022</v>
@@ -1992,13 +2001,13 @@
         <v>221360.72000000018</v>
       </c>
       <c r="H10" s="3">
-        <v>185010.87000000005</v>
+        <v>185010.87000000002</v>
       </c>
       <c r="I10" s="3">
-        <v>158310.23000000021</v>
+        <v>158310.23000000019</v>
       </c>
       <c r="J10" s="3">
-        <v>276168.66000000003</v>
+        <v>276168.66000000009</v>
       </c>
       <c r="K10" s="3">
         <v>226600.16000000021</v>
@@ -2013,14 +2022,14 @@
         <v>334241.25999999989</v>
       </c>
       <c r="O10" s="3">
-        <v>110102.69000000003</v>
+        <v>110102.69000000002</v>
       </c>
       <c r="P10" s="3">
-        <v>247676.78000000012</v>
+        <v>246077.9800000001</v>
       </c>
       <c r="Q10" s="3"/>
       <c r="R10" s="3">
-        <v>2801113.2855000012</v>
+        <v>2799514.4855000009</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -2044,13 +2053,13 @@
         <v>176833.4</v>
       </c>
       <c r="H11" s="3">
-        <v>211054.93999999986</v>
+        <v>211054.93999999983</v>
       </c>
       <c r="I11" s="3">
-        <v>197472.96999999997</v>
+        <v>197472.96999999994</v>
       </c>
       <c r="J11" s="3">
-        <v>218498.73000000019</v>
+        <v>218498.73000000021</v>
       </c>
       <c r="K11" s="3">
         <v>273871.35999999993</v>
@@ -2065,14 +2074,14 @@
         <v>237436.73</v>
       </c>
       <c r="O11" s="3">
-        <v>80817.510000000024</v>
+        <v>80817.510000000009</v>
       </c>
       <c r="P11" s="3">
-        <v>258719.74000000011</v>
+        <v>258718.74000000011</v>
       </c>
       <c r="Q11" s="3"/>
       <c r="R11" s="3">
-        <v>2890987.9200000004</v>
+        <v>2890986.9200000004</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -2096,7 +2105,7 @@
         <v>195827.50000000003</v>
       </c>
       <c r="H12" s="3">
-        <v>210968.86999999994</v>
+        <v>210968.86999999991</v>
       </c>
       <c r="I12" s="3">
         <v>205239.66000000006</v>
@@ -2111,20 +2120,20 @@
         <v>261905.59000000003</v>
       </c>
       <c r="M12" s="3">
-        <v>272046.38</v>
+        <v>272046.38000000006</v>
       </c>
       <c r="N12" s="3">
         <v>274089.63999999996</v>
       </c>
       <c r="O12" s="3">
-        <v>108238.53000000001</v>
+        <v>108238.53000000003</v>
       </c>
       <c r="P12" s="3">
-        <v>276518.62000000005</v>
+        <v>277349.87</v>
       </c>
       <c r="Q12" s="3"/>
       <c r="R12" s="3">
-        <v>2875272.1000000006</v>
+        <v>2876103.3500000006</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -2139,19 +2148,19 @@
         <v>188209.63799999998</v>
       </c>
       <c r="E13" s="3">
-        <v>186037.63999999981</v>
+        <v>186037.63999999978</v>
       </c>
       <c r="F13" s="3">
         <v>190891.72000000006</v>
       </c>
       <c r="G13" s="3">
-        <v>172841.88000000003</v>
+        <v>172841.88000000006</v>
       </c>
       <c r="H13" s="3">
         <v>223204.42999999985</v>
       </c>
       <c r="I13" s="3">
-        <v>186864.88000000003</v>
+        <v>186864.88000000006</v>
       </c>
       <c r="J13" s="3">
         <v>180952.13999999998</v>
@@ -2172,11 +2181,11 @@
         <v>59804.30999999999</v>
       </c>
       <c r="P13" s="3">
-        <v>239050.33000000005</v>
+        <v>247195.09999999995</v>
       </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="3">
-        <v>2852222.588</v>
+        <v>2860367.358</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -2197,19 +2206,19 @@
         <v>194017.46000000002</v>
       </c>
       <c r="G14" s="3">
-        <v>122079.25999999989</v>
+        <v>122079.25999999991</v>
       </c>
       <c r="H14" s="3">
         <v>181374.58999999985</v>
       </c>
       <c r="I14" s="3">
-        <v>164338.62000000014</v>
+        <v>164338.62000000017</v>
       </c>
       <c r="J14" s="3">
         <v>236770.01000000018</v>
       </c>
       <c r="K14" s="3">
-        <v>146546.82000000007</v>
+        <v>146546.82000000004</v>
       </c>
       <c r="L14" s="3">
         <v>240459.76</v>
@@ -2224,11 +2233,11 @@
         <v>146805.30000000002</v>
       </c>
       <c r="P14" s="3">
-        <v>345795.20999999996</v>
+        <v>291840.86000000004</v>
       </c>
       <c r="Q14" s="3"/>
       <c r="R14" s="3">
-        <v>2876473.5028000008</v>
+        <v>2822519.1528000007</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -2245,19 +2254,19 @@
         <v>2267616.5508000008</v>
       </c>
       <c r="E15" s="3">
-        <v>2382521.2804999999</v>
+        <v>2382521.2804999994</v>
       </c>
       <c r="F15" s="3">
         <v>2407374.2800000012</v>
       </c>
       <c r="G15" s="3">
-        <v>2096886.7699999998</v>
+        <v>2096886.77</v>
       </c>
       <c r="H15" s="3">
-        <v>2323869.1599999997</v>
+        <v>2323869.1599999992</v>
       </c>
       <c r="I15" s="3">
-        <v>2092970.6400000001</v>
+        <v>2092970.64</v>
       </c>
       <c r="J15" s="3">
         <v>2575960.8700000006</v>
@@ -2266,25 +2275,25 @@
         <v>2959632.16</v>
       </c>
       <c r="L15" s="3">
-        <v>2651350.060000001</v>
+        <v>2651350.0600000005</v>
       </c>
       <c r="M15" s="3">
-        <v>3145227.9999999995</v>
+        <v>3145227.9999999991</v>
       </c>
       <c r="N15" s="3">
-        <v>3371283.669999999</v>
+        <v>3371283.67</v>
       </c>
       <c r="O15" s="3">
         <v>1277042.0800000003</v>
       </c>
       <c r="P15" s="3">
-        <v>2778458.33</v>
+        <v>2740495.18</v>
       </c>
       <c r="Q15" s="3">
-        <v>13259.469999999998</v>
+        <v>1020071.7899999998</v>
       </c>
       <c r="R15" s="3">
-        <v>32492617.121300001</v>
+        <v>33461466.291299995</v>
       </c>
     </row>
   </sheetData>

--- a/src/OLAP/DataSources/BSV.Profit.xlsx
+++ b/src/OLAP/DataSources/BSV.Profit.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\git\Luxena.Travel\src\OLAP\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E180D7A-972C-4E21-ABB0-1EC889AF9234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE53EAE-05AC-47D0-9EEC-8E6802EFED24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BSV OLAP" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179021"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId2"/>
+    <pivotCache cacheId="19" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Доход</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
   </si>
 </sst>
 </file>
@@ -698,12 +701,12 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="44739.890309606482" backgroundQuery="1" createdVersion="6" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF10000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="44978.788201967589" backgroundQuery="1" createdVersion="6" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF10000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Доход]" caption="Доход" numFmtId="0" hierarchy="115" level="32767"/>
     <cacheField name="[Дата].[Год].[Год]" caption="Год" numFmtId="0" hierarchy="16" level="1">
-      <sharedItems count="16">
+      <sharedItems count="17">
         <s v="[Дата].[Год].&amp;[2007]" c="2007"/>
         <s v="[Дата].[Год].&amp;[2008]" c="2008"/>
         <s v="[Дата].[Год].&amp;[2009]" c="2009"/>
@@ -720,6 +723,7 @@
         <s v="[Дата].[Год].&amp;[2020]" c="2020"/>
         <s v="[Дата].[Год].&amp;[2021]" c="2021"/>
         <s v="[Дата].[Год].&amp;[2022]" c="2022"/>
+        <s v="[Дата].[Год].&amp;[2023]" c="2023"/>
       </sharedItems>
     </cacheField>
     <cacheField name="[Дата].[Месяц].[Месяц]" caption="Месяц" numFmtId="0" hierarchy="20" level="1">
@@ -941,12 +945,12 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A1:R15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A1:S15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="16">
+      <items count="17">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -963,6 +967,7 @@
         <item x="13"/>
         <item x="14"/>
         <item x="15"/>
+        <item x="16"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -1029,7 +1034,7 @@
   <colFields count="1">
     <field x="1"/>
   </colFields>
-  <colItems count="17">
+  <colItems count="18">
     <i>
       <x/>
     </i>
@@ -1077,6 +1082,9 @@
     </i>
     <i>
       <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
     </i>
     <i t="grand">
       <x/>
@@ -1524,10 +1532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1536,8 +1544,8 @@
     <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="17" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
@@ -1552,11 +1560,13 @@
     <col min="31" max="31" width="17" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="17" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1564,7 +1574,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1617,17 +1627,20 @@
         <v>31</v>
       </c>
       <c r="R2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3">
-        <v>122816.43</v>
+        <v>122816.42999999998</v>
       </c>
       <c r="E3" s="3">
         <v>141626.74139999994</v>
@@ -1639,16 +1652,16 @@
         <v>147334.36999999988</v>
       </c>
       <c r="H3" s="3">
-        <v>135527.39000000013</v>
+        <v>135527.3900000001</v>
       </c>
       <c r="I3" s="3">
-        <v>158399.56999999983</v>
+        <v>158399.56999999986</v>
       </c>
       <c r="J3" s="3">
-        <v>138337.67000000001</v>
+        <v>138337.67000000004</v>
       </c>
       <c r="K3" s="3">
-        <v>217155.08</v>
+        <v>217155.08000000002</v>
       </c>
       <c r="L3" s="3">
         <v>153573.61999999997</v>
@@ -1666,13 +1679,16 @@
         <v>126462.29999999997</v>
       </c>
       <c r="Q3" s="3">
-        <v>218185.38999999998</v>
+        <v>218194.38999999998</v>
       </c>
       <c r="R3" s="3">
-        <v>2452771.6613999996</v>
+        <v>234716.33999999997</v>
+      </c>
+      <c r="S3" s="3">
+        <v>2687497.0013999995</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -1682,7 +1698,7 @@
         <v>171214.22999999981</v>
       </c>
       <c r="E4" s="3">
-        <v>143976.96160000007</v>
+        <v>143976.9616000001</v>
       </c>
       <c r="F4" s="3">
         <v>203352.66000000003</v>
@@ -1691,13 +1707,13 @@
         <v>190793.68999999971</v>
       </c>
       <c r="H4" s="3">
-        <v>147319.16000000003</v>
+        <v>147319.16000000009</v>
       </c>
       <c r="I4" s="3">
         <v>195598.87999999998</v>
       </c>
       <c r="J4" s="3">
-        <v>146279.16</v>
+        <v>146279.16000000003</v>
       </c>
       <c r="K4" s="3">
         <v>221731.44999999995</v>
@@ -1709,22 +1725,25 @@
         <v>223449.21999999988</v>
       </c>
       <c r="N4" s="3">
-        <v>266018.27999999997</v>
+        <v>266018.28000000003</v>
       </c>
       <c r="O4" s="3">
-        <v>345609.78</v>
+        <v>345609.78000000009</v>
       </c>
       <c r="P4" s="3">
         <v>117972.26000000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>278972.97999999992</v>
+        <v>280648.96999999997</v>
       </c>
       <c r="R4" s="3">
-        <v>2863576.9815999996</v>
+        <v>90463.619999999981</v>
+      </c>
+      <c r="S4" s="3">
+        <v>2955716.5916000009</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
@@ -1749,10 +1768,10 @@
         <v>153481.77999999997</v>
       </c>
       <c r="J5" s="3">
-        <v>307481.67999999993</v>
+        <v>307481.68</v>
       </c>
       <c r="K5" s="3">
-        <v>266700.42999999993</v>
+        <v>266700.42999999988</v>
       </c>
       <c r="L5" s="3">
         <v>242577.98999999996</v>
@@ -1772,11 +1791,12 @@
       <c r="Q5" s="3">
         <v>48121.07</v>
       </c>
-      <c r="R5" s="3">
+      <c r="R5" s="3"/>
+      <c r="S5" s="3">
         <v>2878500.8510999996</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -1789,7 +1809,7 @@
         <v>209012.66550000021</v>
       </c>
       <c r="F6" s="3">
-        <v>207835.58999999994</v>
+        <v>207835.58999999997</v>
       </c>
       <c r="G6" s="3">
         <v>171336.27000000005</v>
@@ -1804,13 +1824,13 @@
         <v>170653.72999999995</v>
       </c>
       <c r="K6" s="3">
-        <v>285748.51999999996</v>
+        <v>285748.5199999999</v>
       </c>
       <c r="L6" s="3">
         <v>189911.27999999991</v>
       </c>
       <c r="M6" s="3">
-        <v>275183.53999999992</v>
+        <v>275183.53999999986</v>
       </c>
       <c r="N6" s="3">
         <v>263655.03000000009</v>
@@ -1824,11 +1844,12 @@
       <c r="Q6" s="3">
         <v>106392.66</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R6" s="3"/>
+      <c r="S6" s="3">
         <v>2626397.4654999995</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
@@ -1838,10 +1859,10 @@
         <v>193026.19000000009</v>
       </c>
       <c r="E7" s="3">
-        <v>199267.42100000012</v>
+        <v>199267.42100000015</v>
       </c>
       <c r="F7" s="3">
-        <v>176186.43000000005</v>
+        <v>176186.43000000008</v>
       </c>
       <c r="G7" s="3">
         <v>175477.80999999988</v>
@@ -1853,13 +1874,13 @@
         <v>174793.39999999991</v>
       </c>
       <c r="J7" s="3">
-        <v>226476.37999999995</v>
+        <v>226476.37999999998</v>
       </c>
       <c r="K7" s="3">
-        <v>290242.96999999974</v>
+        <v>290242.96999999968</v>
       </c>
       <c r="L7" s="3">
-        <v>224334.05999999997</v>
+        <v>224334.05999999994</v>
       </c>
       <c r="M7" s="3">
         <v>259558.20999999988</v>
@@ -1874,13 +1895,14 @@
         <v>211595.00000000009</v>
       </c>
       <c r="Q7" s="3">
-        <v>199937.12</v>
-      </c>
-      <c r="R7" s="3">
-        <v>2796671.1909999992</v>
+        <v>201865.04</v>
+      </c>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3">
+        <v>2798599.1109999991</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -1911,7 +1933,7 @@
         <v>237637.53000000026</v>
       </c>
       <c r="L8" s="3">
-        <v>202339.77000000005</v>
+        <v>202339.77000000008</v>
       </c>
       <c r="M8" s="3">
         <v>238854.18999999989</v>
@@ -1926,13 +1948,14 @@
         <v>342162.72</v>
       </c>
       <c r="Q8" s="3">
-        <v>168462.57</v>
-      </c>
-      <c r="R8" s="3">
-        <v>2818956.3762000008</v>
+        <v>234648.11</v>
+      </c>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3">
+        <v>2885141.9162000008</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
@@ -1951,16 +1974,16 @@
         <v>181920.4800000001</v>
       </c>
       <c r="H9" s="3">
-        <v>225020.9899999999</v>
+        <v>225020.98999999987</v>
       </c>
       <c r="I9" s="3">
-        <v>216037.82999999996</v>
+        <v>216037.83</v>
       </c>
       <c r="J9" s="3">
         <v>249565.57999999993</v>
       </c>
       <c r="K9" s="3">
-        <v>267975.60000000015</v>
+        <v>267975.60000000021</v>
       </c>
       <c r="L9" s="3">
         <v>183779.88000000006</v>
@@ -1969,20 +1992,23 @@
         <v>239998.54999999996</v>
       </c>
       <c r="N9" s="3">
-        <v>311354.57</v>
+        <v>311354.57000000007</v>
       </c>
       <c r="O9" s="3">
-        <v>71497.899999999994</v>
+        <v>71497.89999999998</v>
       </c>
       <c r="P9" s="3">
         <v>219063.50000000006</v>
       </c>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3">
-        <v>2775100.4982000003</v>
+      <c r="Q9" s="3">
+        <v>238214.09000000008</v>
+      </c>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3">
+        <v>3013314.588200001</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
@@ -1992,7 +2018,7 @@
         <v>182727.50000000017</v>
       </c>
       <c r="E10" s="3">
-        <v>204497.72549999994</v>
+        <v>204497.72549999991</v>
       </c>
       <c r="F10" s="3">
         <v>203716.70000000022</v>
@@ -2001,7 +2027,7 @@
         <v>221360.72000000018</v>
       </c>
       <c r="H10" s="3">
-        <v>185010.87000000002</v>
+        <v>185010.87000000005</v>
       </c>
       <c r="I10" s="3">
         <v>158310.23000000019</v>
@@ -2027,12 +2053,15 @@
       <c r="P10" s="3">
         <v>246077.9800000001</v>
       </c>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3">
-        <v>2799514.4855000009</v>
+      <c r="Q10" s="3">
+        <v>198679.36</v>
+      </c>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3">
+        <v>2998193.8455000008</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -2047,25 +2076,25 @@
         <v>267668.83999999962</v>
       </c>
       <c r="F11" s="3">
-        <v>234616.24000000008</v>
+        <v>234616.24000000005</v>
       </c>
       <c r="G11" s="3">
         <v>176833.4</v>
       </c>
       <c r="H11" s="3">
-        <v>211054.93999999983</v>
+        <v>211054.93999999986</v>
       </c>
       <c r="I11" s="3">
         <v>197472.96999999994</v>
       </c>
       <c r="J11" s="3">
-        <v>218498.73000000021</v>
+        <v>218498.73000000019</v>
       </c>
       <c r="K11" s="3">
         <v>273871.35999999993</v>
       </c>
       <c r="L11" s="3">
-        <v>259088.84000000011</v>
+        <v>259088.84000000014</v>
       </c>
       <c r="M11" s="3">
         <v>256319.18000000002</v>
@@ -2074,17 +2103,20 @@
         <v>237436.73</v>
       </c>
       <c r="O11" s="3">
-        <v>80817.510000000009</v>
+        <v>80817.509999999995</v>
       </c>
       <c r="P11" s="3">
         <v>258718.74000000011</v>
       </c>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3">
-        <v>2890986.9200000004</v>
+      <c r="Q11" s="3">
+        <v>280906.51</v>
+      </c>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3">
+        <v>3171893.4300000006</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -2129,14 +2161,17 @@
         <v>108238.53000000003</v>
       </c>
       <c r="P12" s="3">
-        <v>277349.87</v>
-      </c>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3">
-        <v>2876103.3500000006</v>
+        <v>277349.87000000005</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>253519.13</v>
+      </c>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3">
+        <v>3129622.4800000004</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -2148,13 +2183,13 @@
         <v>188209.63799999998</v>
       </c>
       <c r="E13" s="3">
-        <v>186037.63999999978</v>
+        <v>186037.63999999981</v>
       </c>
       <c r="F13" s="3">
         <v>190891.72000000006</v>
       </c>
       <c r="G13" s="3">
-        <v>172841.88000000006</v>
+        <v>172841.88000000003</v>
       </c>
       <c r="H13" s="3">
         <v>223204.42999999985</v>
@@ -2183,12 +2218,15 @@
       <c r="P13" s="3">
         <v>247195.09999999995</v>
       </c>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3">
-        <v>2860367.358</v>
+      <c r="Q13" s="3">
+        <v>318028.02000000014</v>
+      </c>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3">
+        <v>3178395.378</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -2206,19 +2244,19 @@
         <v>194017.46000000002</v>
       </c>
       <c r="G14" s="3">
-        <v>122079.25999999991</v>
+        <v>122079.25999999989</v>
       </c>
       <c r="H14" s="3">
         <v>181374.58999999985</v>
       </c>
       <c r="I14" s="3">
-        <v>164338.62000000017</v>
+        <v>164338.62000000014</v>
       </c>
       <c r="J14" s="3">
         <v>236770.01000000018</v>
       </c>
       <c r="K14" s="3">
-        <v>146546.82000000004</v>
+        <v>146546.82000000007</v>
       </c>
       <c r="L14" s="3">
         <v>240459.76</v>
@@ -2235,12 +2273,15 @@
       <c r="P14" s="3">
         <v>291840.86000000004</v>
       </c>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3">
-        <v>2822519.1528000007</v>
+      <c r="Q14" s="3">
+        <v>244707.15000000002</v>
+      </c>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3">
+        <v>3067226.3028000006</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
@@ -2254,7 +2295,7 @@
         <v>2267616.5508000008</v>
       </c>
       <c r="E15" s="3">
-        <v>2382521.2804999994</v>
+        <v>2382521.2804999999</v>
       </c>
       <c r="F15" s="3">
         <v>2407374.2800000012</v>
@@ -2278,7 +2319,7 @@
         <v>2651350.0600000005</v>
       </c>
       <c r="M15" s="3">
-        <v>3145227.9999999991</v>
+        <v>3145227.9999999995</v>
       </c>
       <c r="N15" s="3">
         <v>3371283.67</v>
@@ -2290,10 +2331,13 @@
         <v>2740495.18</v>
       </c>
       <c r="Q15" s="3">
-        <v>1020071.7899999998</v>
+        <v>2623924.5</v>
       </c>
       <c r="R15" s="3">
-        <v>33461466.291299995</v>
+        <v>325179.95999999996</v>
+      </c>
+      <c r="S15" s="3">
+        <v>35390498.961299971</v>
       </c>
     </row>
   </sheetData>

--- a/src/OLAP/DataSources/BSV.Profit.xlsx
+++ b/src/OLAP/DataSources/BSV.Profit.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\git\Luxena.Travel\src\OLAP\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE53EAE-05AC-47D0-9EEC-8E6802EFED24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665C3525-CE93-4DCF-BAAE-B84F97D2BF28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2680" yWindow="-14510" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BSV OLAP" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179021"/>
   <pivotCaches>
-    <pivotCache cacheId="19" r:id="rId2"/>
+    <pivotCache cacheId="6" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="D:\data\git\Luxena.Travel\src\OLAP\DataSources\BSV OLAP.odc" keepAlive="1" name="BSV Travel Документы" type="5" refreshedVersion="7" background="1">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="D:\data\git\Luxena.Travel\src\OLAP\DataSources\BSV OLAP.odc" keepAlive="1" name="BSV Travel Документы" type="5" refreshedVersion="8" background="1">
     <dbPr connection="Provider=MSOLAP.8;Persist Security Info=True;User ID=SRV01\bsv;Initial Catalog=BSV Travel;Data Source=analysis.travel.smartikum.com;Location=analysis.travel.smartikum.com;MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error;Update Isolation Level=2" command="Документы" commandType="1"/>
     <olapPr sendLocale="1" rowDrillCount="1000"/>
   </connection>
@@ -701,7 +701,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="44978.788201967589" backgroundQuery="1" createdVersion="6" refreshedVersion="7" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF10000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="45184.448198148151" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF10000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Доход]" caption="Доход" numFmtId="0" hierarchy="115" level="32767"/>
@@ -945,7 +945,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A1:S15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -1534,39 +1534,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="17" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="17" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="17" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="18" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1574,7 +1573,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1633,7 +1632,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -1661,7 +1660,7 @@
         <v>138337.67000000004</v>
       </c>
       <c r="K3" s="3">
-        <v>217155.08000000002</v>
+        <v>217155.08</v>
       </c>
       <c r="L3" s="3">
         <v>153573.61999999997</v>
@@ -1688,7 +1687,7 @@
         <v>2687497.0013999995</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -1716,7 +1715,7 @@
         <v>146279.16000000003</v>
       </c>
       <c r="K4" s="3">
-        <v>221731.44999999995</v>
+        <v>221731.44999999992</v>
       </c>
       <c r="L4" s="3">
         <v>211288.27</v>
@@ -1725,7 +1724,7 @@
         <v>223449.21999999988</v>
       </c>
       <c r="N4" s="3">
-        <v>266018.28000000003</v>
+        <v>266018.27999999997</v>
       </c>
       <c r="O4" s="3">
         <v>345609.78000000009</v>
@@ -1737,13 +1736,13 @@
         <v>280648.96999999997</v>
       </c>
       <c r="R4" s="3">
-        <v>90463.619999999981</v>
+        <v>145166.68</v>
       </c>
       <c r="S4" s="3">
-        <v>2955716.5916000009</v>
+        <v>3010419.6515999995</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
@@ -1762,7 +1761,7 @@
         <v>174782.29999999996</v>
       </c>
       <c r="H5" s="3">
-        <v>196855.40000000002</v>
+        <v>196855.40000000008</v>
       </c>
       <c r="I5" s="3">
         <v>153481.77999999997</v>
@@ -1789,14 +1788,16 @@
         <v>221389.48</v>
       </c>
       <c r="Q5" s="3">
-        <v>48121.07</v>
-      </c>
-      <c r="R5" s="3"/>
+        <v>46333.319999999992</v>
+      </c>
+      <c r="R5" s="3">
+        <v>225543.89000000004</v>
+      </c>
       <c r="S5" s="3">
-        <v>2878500.8510999996</v>
+        <v>3102256.9911000002</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -1830,10 +1831,10 @@
         <v>189911.27999999991</v>
       </c>
       <c r="M6" s="3">
-        <v>275183.53999999986</v>
+        <v>275183.53999999992</v>
       </c>
       <c r="N6" s="3">
-        <v>263655.03000000009</v>
+        <v>263655.03000000003</v>
       </c>
       <c r="O6" s="3">
         <v>254</v>
@@ -1844,12 +1845,14 @@
       <c r="Q6" s="3">
         <v>106392.66</v>
       </c>
-      <c r="R6" s="3"/>
+      <c r="R6" s="3">
+        <v>243894.32000000004</v>
+      </c>
       <c r="S6" s="3">
-        <v>2626397.4654999995</v>
+        <v>2870291.7854999993</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
@@ -1868,7 +1871,7 @@
         <v>175477.80999999988</v>
       </c>
       <c r="H7" s="3">
-        <v>189204.38999999984</v>
+        <v>189204.38999999987</v>
       </c>
       <c r="I7" s="3">
         <v>174793.39999999991</v>
@@ -1877,7 +1880,7 @@
         <v>226476.37999999998</v>
       </c>
       <c r="K7" s="3">
-        <v>290242.96999999968</v>
+        <v>290242.96999999974</v>
       </c>
       <c r="L7" s="3">
         <v>224334.05999999994</v>
@@ -1897,12 +1900,14 @@
       <c r="Q7" s="3">
         <v>201865.04</v>
       </c>
-      <c r="R7" s="3"/>
+      <c r="R7" s="3">
+        <v>247446.65000000002</v>
+      </c>
       <c r="S7" s="3">
-        <v>2798599.1109999991</v>
+        <v>3046045.760999999</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -1939,7 +1944,7 @@
         <v>238854.18999999989</v>
       </c>
       <c r="N8" s="3">
-        <v>302391.68000000005</v>
+        <v>302391.67999999999</v>
       </c>
       <c r="O8" s="3">
         <v>13115.6</v>
@@ -1950,12 +1955,14 @@
       <c r="Q8" s="3">
         <v>234648.11</v>
       </c>
-      <c r="R8" s="3"/>
+      <c r="R8" s="3">
+        <v>332305.46999999991</v>
+      </c>
       <c r="S8" s="3">
-        <v>2885141.9162000008</v>
+        <v>3217447.3862000005</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
@@ -1983,7 +1990,7 @@
         <v>249565.57999999993</v>
       </c>
       <c r="K9" s="3">
-        <v>267975.60000000021</v>
+        <v>267975.60000000027</v>
       </c>
       <c r="L9" s="3">
         <v>183779.88000000006</v>
@@ -1992,7 +1999,7 @@
         <v>239998.54999999996</v>
       </c>
       <c r="N9" s="3">
-        <v>311354.57000000007</v>
+        <v>311354.56999999995</v>
       </c>
       <c r="O9" s="3">
         <v>71497.89999999998</v>
@@ -2003,12 +2010,14 @@
       <c r="Q9" s="3">
         <v>238214.09000000008</v>
       </c>
-      <c r="R9" s="3"/>
+      <c r="R9" s="3">
+        <v>237549.23</v>
+      </c>
       <c r="S9" s="3">
-        <v>3013314.588200001</v>
+        <v>3250863.8182000015</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
@@ -2056,12 +2065,14 @@
       <c r="Q10" s="3">
         <v>198679.36</v>
       </c>
-      <c r="R10" s="3"/>
+      <c r="R10" s="3">
+        <v>277301.40999999997</v>
+      </c>
       <c r="S10" s="3">
-        <v>2998193.8455000008</v>
+        <v>3275495.2555000009</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -2082,10 +2093,10 @@
         <v>176833.4</v>
       </c>
       <c r="H11" s="3">
-        <v>211054.93999999986</v>
+        <v>211054.93999999989</v>
       </c>
       <c r="I11" s="3">
-        <v>197472.96999999994</v>
+        <v>197472.96999999997</v>
       </c>
       <c r="J11" s="3">
         <v>218498.73000000019</v>
@@ -2103,7 +2114,7 @@
         <v>237436.73</v>
       </c>
       <c r="O11" s="3">
-        <v>80817.509999999995</v>
+        <v>80817.510000000009</v>
       </c>
       <c r="P11" s="3">
         <v>258718.74000000011</v>
@@ -2111,12 +2122,14 @@
       <c r="Q11" s="3">
         <v>280906.51</v>
       </c>
-      <c r="R11" s="3"/>
+      <c r="R11" s="3">
+        <v>142484.99000000002</v>
+      </c>
       <c r="S11" s="3">
-        <v>3171893.4300000006</v>
+        <v>3314378.4200000009</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -2158,7 +2171,7 @@
         <v>274089.63999999996</v>
       </c>
       <c r="O12" s="3">
-        <v>108238.53000000003</v>
+        <v>108238.53000000001</v>
       </c>
       <c r="P12" s="3">
         <v>277349.87000000005</v>
@@ -2171,7 +2184,7 @@
         <v>3129622.4800000004</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -2223,10 +2236,10 @@
       </c>
       <c r="R13" s="3"/>
       <c r="S13" s="3">
-        <v>3178395.378</v>
+        <v>3178395.3779999996</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -2281,7 +2294,7 @@
         <v>3067226.3028000006</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
@@ -2298,16 +2311,16 @@
         <v>2382521.2804999999</v>
       </c>
       <c r="F15" s="3">
-        <v>2407374.2800000012</v>
+        <v>2407374.2800000007</v>
       </c>
       <c r="G15" s="3">
         <v>2096886.77</v>
       </c>
       <c r="H15" s="3">
-        <v>2323869.1599999992</v>
+        <v>2323869.1599999997</v>
       </c>
       <c r="I15" s="3">
-        <v>2092970.64</v>
+        <v>2092970.6400000004</v>
       </c>
       <c r="J15" s="3">
         <v>2575960.8700000006</v>
@@ -2316,13 +2329,13 @@
         <v>2959632.16</v>
       </c>
       <c r="L15" s="3">
-        <v>2651350.0600000005</v>
+        <v>2651350.06</v>
       </c>
       <c r="M15" s="3">
         <v>3145227.9999999995</v>
       </c>
       <c r="N15" s="3">
-        <v>3371283.67</v>
+        <v>3371283.669999999</v>
       </c>
       <c r="O15" s="3">
         <v>1277042.0800000003</v>
@@ -2331,13 +2344,13 @@
         <v>2740495.18</v>
       </c>
       <c r="Q15" s="3">
-        <v>2623924.5</v>
+        <v>2622136.75</v>
       </c>
       <c r="R15" s="3">
-        <v>325179.95999999996</v>
+        <v>2086408.98</v>
       </c>
       <c r="S15" s="3">
-        <v>35390498.961299971</v>
+        <v>37149940.231299967</v>
       </c>
     </row>
   </sheetData>

--- a/src/OLAP/DataSources/BSV.Profit.xlsx
+++ b/src/OLAP/DataSources/BSV.Profit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\git\Luxena.Travel\src\OLAP\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665C3525-CE93-4DCF-BAAE-B84F97D2BF28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C5D097-2B1B-42FD-9FC7-C34BE2F27B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="-14510" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2190" yWindow="10702" windowWidth="19395" windowHeight="11476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BSV OLAP" sheetId="1" r:id="rId1"/>
@@ -701,7 +701,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="45184.448198148151" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF10000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="45204.559543634263" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF10000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Доход]" caption="Доход" numFmtId="0" hierarchy="115" level="32767"/>
@@ -1534,38 +1534,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="18" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="18" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>2687497.0013999995</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>3010419.6515999995</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>3102256.9911000002</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -1816,13 +1816,13 @@
         <v>171336.27000000005</v>
       </c>
       <c r="H6" s="3">
-        <v>202298.93999999997</v>
+        <v>202298.94</v>
       </c>
       <c r="I6" s="3">
         <v>131881.42999999991</v>
       </c>
       <c r="J6" s="3">
-        <v>170653.72999999995</v>
+        <v>170653.72999999998</v>
       </c>
       <c r="K6" s="3">
         <v>285748.5199999999</v>
@@ -1852,7 +1852,7 @@
         <v>2870291.7854999993</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>3046045.760999999</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>238854.18999999989</v>
       </c>
       <c r="N8" s="3">
-        <v>302391.67999999999</v>
+        <v>302391.68000000005</v>
       </c>
       <c r="O8" s="3">
         <v>13115.6</v>
@@ -1956,13 +1956,13 @@
         <v>234648.11</v>
       </c>
       <c r="R8" s="3">
-        <v>332305.46999999991</v>
+        <v>332396.46999999991</v>
       </c>
       <c r="S8" s="3">
-        <v>3217447.3862000005</v>
+        <v>3217538.3862000005</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
@@ -2011,13 +2011,13 @@
         <v>238214.09000000008</v>
       </c>
       <c r="R9" s="3">
-        <v>237549.23</v>
+        <v>236441.23</v>
       </c>
       <c r="S9" s="3">
-        <v>3250863.8182000015</v>
+        <v>3249755.8182000015</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
@@ -2066,13 +2066,13 @@
         <v>198679.36</v>
       </c>
       <c r="R10" s="3">
-        <v>277301.40999999997</v>
+        <v>267727.15999999997</v>
       </c>
       <c r="S10" s="3">
-        <v>3275495.2555000009</v>
+        <v>3265921.0055000009</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -2123,13 +2123,13 @@
         <v>280906.51</v>
       </c>
       <c r="R11" s="3">
-        <v>142484.99000000002</v>
+        <v>295758.3299999999</v>
       </c>
       <c r="S11" s="3">
-        <v>3314378.4200000009</v>
+        <v>3467651.7600000007</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -2179,12 +2179,14 @@
       <c r="Q12" s="3">
         <v>253519.13</v>
       </c>
-      <c r="R12" s="3"/>
+      <c r="R12" s="3">
+        <v>36321.61</v>
+      </c>
       <c r="S12" s="3">
-        <v>3129622.4800000004</v>
+        <v>3165944.0900000003</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -2223,7 +2225,7 @@
         <v>314023.31000000011</v>
       </c>
       <c r="N13" s="3">
-        <v>287342.68</v>
+        <v>287342.68000000005</v>
       </c>
       <c r="O13" s="3">
         <v>59804.30999999999</v>
@@ -2236,10 +2238,10 @@
       </c>
       <c r="R13" s="3"/>
       <c r="S13" s="3">
-        <v>3178395.3779999996</v>
+        <v>3178395.378</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -2294,7 +2296,7 @@
         <v>3067226.3028000006</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
@@ -2332,13 +2334,13 @@
         <v>2651350.06</v>
       </c>
       <c r="M15" s="3">
-        <v>3145227.9999999995</v>
+        <v>3145227.9999999991</v>
       </c>
       <c r="N15" s="3">
-        <v>3371283.669999999</v>
+        <v>3371283.67</v>
       </c>
       <c r="O15" s="3">
-        <v>1277042.0800000003</v>
+        <v>1277042.08</v>
       </c>
       <c r="P15" s="3">
         <v>2740495.18</v>
@@ -2347,10 +2349,10 @@
         <v>2622136.75</v>
       </c>
       <c r="R15" s="3">
-        <v>2086408.98</v>
+        <v>2265412.6799999997</v>
       </c>
       <c r="S15" s="3">
-        <v>37149940.231299967</v>
+        <v>37328943.931299962</v>
       </c>
     </row>
   </sheetData>

--- a/src/OLAP/DataSources/BSV.Profit.xlsx
+++ b/src/OLAP/DataSources/BSV.Profit.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\git\Luxena.Travel\src\OLAP\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C5D097-2B1B-42FD-9FC7-C34BE2F27B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92603397-4D4D-4841-A2D0-F347230749EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2190" yWindow="10702" windowWidth="19395" windowHeight="11476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BSV OLAP" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179021"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId2"/>
+    <pivotCache cacheId="176" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Доход</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -701,12 +704,12 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="45204.559543634263" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF10000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="45334.432002314818" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF10000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Доход]" caption="Доход" numFmtId="0" hierarchy="115" level="32767"/>
     <cacheField name="[Дата].[Год].[Год]" caption="Год" numFmtId="0" hierarchy="16" level="1">
-      <sharedItems count="17">
+      <sharedItems count="18">
         <s v="[Дата].[Год].&amp;[2007]" c="2007"/>
         <s v="[Дата].[Год].&amp;[2008]" c="2008"/>
         <s v="[Дата].[Год].&amp;[2009]" c="2009"/>
@@ -724,6 +727,7 @@
         <s v="[Дата].[Год].&amp;[2021]" c="2021"/>
         <s v="[Дата].[Год].&amp;[2022]" c="2022"/>
         <s v="[Дата].[Год].&amp;[2023]" c="2023"/>
+        <s v="[Дата].[Год].&amp;[2024]" c="2024"/>
       </sharedItems>
     </cacheField>
     <cacheField name="[Дата].[Месяц].[Месяц]" caption="Месяц" numFmtId="0" hierarchy="20" level="1">
@@ -945,12 +949,12 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A1:S15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="176" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A1:T15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="17">
+      <items count="18">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -968,6 +972,7 @@
         <item x="14"/>
         <item x="15"/>
         <item x="16"/>
+        <item x="17"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -1034,7 +1039,7 @@
   <colFields count="1">
     <field x="1"/>
   </colFields>
-  <colItems count="18">
+  <colItems count="19">
     <i>
       <x/>
     </i>
@@ -1085,6 +1090,9 @@
     </i>
     <i>
       <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
     </i>
     <i t="grand">
       <x/>
@@ -1236,9 +1244,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office 2013–2022">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1276,7 +1284,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1382,7 +1390,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1524,7 +1532,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1532,40 +1540,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="18" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.9296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="18" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1573,7 +1583,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1629,10 +1639,13 @@
         <v>32</v>
       </c>
       <c r="S2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -1669,7 +1682,7 @@
         <v>232769.65000000005</v>
       </c>
       <c r="N3" s="3">
-        <v>251238.75999999992</v>
+        <v>251238.75999999995</v>
       </c>
       <c r="O3" s="3">
         <v>249624.21999999997</v>
@@ -1684,10 +1697,13 @@
         <v>234716.33999999997</v>
       </c>
       <c r="S3" s="3">
-        <v>2687497.0013999995</v>
+        <v>293875.63999999996</v>
+      </c>
+      <c r="T3" s="3">
+        <v>2981372.6413999996</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -1697,7 +1713,7 @@
         <v>171214.22999999981</v>
       </c>
       <c r="E4" s="3">
-        <v>143976.9616000001</v>
+        <v>143976.9617000001</v>
       </c>
       <c r="F4" s="3">
         <v>203352.66000000003</v>
@@ -1715,7 +1731,7 @@
         <v>146279.16000000003</v>
       </c>
       <c r="K4" s="3">
-        <v>221731.44999999992</v>
+        <v>221731.4499999999</v>
       </c>
       <c r="L4" s="3">
         <v>211288.27</v>
@@ -1733,16 +1749,19 @@
         <v>117972.26000000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>280648.96999999997</v>
+        <v>277516.97000000003</v>
       </c>
       <c r="R4" s="3">
         <v>145166.68</v>
       </c>
       <c r="S4" s="3">
-        <v>3010419.6515999995</v>
+        <v>124181.58000000003</v>
+      </c>
+      <c r="T4" s="3">
+        <v>3131469.2316999994</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
@@ -1770,7 +1789,7 @@
         <v>307481.68</v>
       </c>
       <c r="K5" s="3">
-        <v>266700.42999999988</v>
+        <v>266700.42999999993</v>
       </c>
       <c r="L5" s="3">
         <v>242577.98999999996</v>
@@ -1788,16 +1807,17 @@
         <v>221389.48</v>
       </c>
       <c r="Q5" s="3">
-        <v>46333.319999999992</v>
+        <v>48121.069999999992</v>
       </c>
       <c r="R5" s="3">
         <v>225543.89000000004</v>
       </c>
-      <c r="S5" s="3">
-        <v>3102256.9911000002</v>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3">
+        <v>3104044.7411000002</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -1816,7 +1836,7 @@
         <v>171336.27000000005</v>
       </c>
       <c r="H6" s="3">
-        <v>202298.94</v>
+        <v>202298.94000000006</v>
       </c>
       <c r="I6" s="3">
         <v>131881.42999999991</v>
@@ -1848,11 +1868,12 @@
       <c r="R6" s="3">
         <v>243894.32000000004</v>
       </c>
-      <c r="S6" s="3">
+      <c r="S6" s="3"/>
+      <c r="T6" s="3">
         <v>2870291.7854999993</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
@@ -1880,7 +1901,7 @@
         <v>226476.37999999998</v>
       </c>
       <c r="K7" s="3">
-        <v>290242.96999999974</v>
+        <v>290242.9699999998</v>
       </c>
       <c r="L7" s="3">
         <v>224334.05999999994</v>
@@ -1901,13 +1922,14 @@
         <v>201865.04</v>
       </c>
       <c r="R7" s="3">
-        <v>247446.65000000002</v>
-      </c>
-      <c r="S7" s="3">
-        <v>3046045.760999999</v>
+        <v>247335.72000000003</v>
+      </c>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3">
+        <v>3045934.8309999993</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -1932,7 +1954,7 @@
         <v>150551.39000000001</v>
       </c>
       <c r="J8" s="3">
-        <v>200904.07000000021</v>
+        <v>200904.07000000024</v>
       </c>
       <c r="K8" s="3">
         <v>237637.53000000026</v>
@@ -1956,13 +1978,14 @@
         <v>234648.11</v>
       </c>
       <c r="R8" s="3">
-        <v>332396.46999999991</v>
-      </c>
-      <c r="S8" s="3">
-        <v>3217538.3862000005</v>
+        <v>332395.46999999991</v>
+      </c>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3">
+        <v>3217537.3862000005</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
@@ -1984,7 +2007,7 @@
         <v>225020.98999999987</v>
       </c>
       <c r="I9" s="3">
-        <v>216037.83</v>
+        <v>216037.83000000002</v>
       </c>
       <c r="J9" s="3">
         <v>249565.57999999993</v>
@@ -1999,7 +2022,7 @@
         <v>239998.54999999996</v>
       </c>
       <c r="N9" s="3">
-        <v>311354.56999999995</v>
+        <v>311354.56999999989</v>
       </c>
       <c r="O9" s="3">
         <v>71497.89999999998</v>
@@ -2008,16 +2031,17 @@
         <v>219063.50000000006</v>
       </c>
       <c r="Q9" s="3">
-        <v>238214.09000000008</v>
+        <v>229802.09000000008</v>
       </c>
       <c r="R9" s="3">
-        <v>236441.23</v>
-      </c>
-      <c r="S9" s="3">
-        <v>3249755.8182000015</v>
+        <v>232593.07</v>
+      </c>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3">
+        <v>3237495.6582000004</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
@@ -2042,7 +2066,7 @@
         <v>158310.23000000019</v>
       </c>
       <c r="J10" s="3">
-        <v>276168.66000000009</v>
+        <v>276168.66000000003</v>
       </c>
       <c r="K10" s="3">
         <v>226600.16000000021</v>
@@ -2068,11 +2092,12 @@
       <c r="R10" s="3">
         <v>267727.15999999997</v>
       </c>
-      <c r="S10" s="3">
-        <v>3265921.0055000009</v>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3">
+        <v>3265921.0055000004</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -2093,10 +2118,10 @@
         <v>176833.4</v>
       </c>
       <c r="H11" s="3">
-        <v>211054.93999999989</v>
+        <v>211054.93999999986</v>
       </c>
       <c r="I11" s="3">
-        <v>197472.96999999997</v>
+        <v>197472.96999999994</v>
       </c>
       <c r="J11" s="3">
         <v>218498.73000000019</v>
@@ -2123,13 +2148,14 @@
         <v>280906.51</v>
       </c>
       <c r="R11" s="3">
-        <v>295758.3299999999</v>
-      </c>
-      <c r="S11" s="3">
-        <v>3467651.7600000007</v>
+        <v>296861.06999999989</v>
+      </c>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3">
+        <v>3468754.5000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -2180,13 +2206,14 @@
         <v>253519.13</v>
       </c>
       <c r="R12" s="3">
-        <v>36321.61</v>
-      </c>
-      <c r="S12" s="3">
-        <v>3165944.0900000003</v>
+        <v>179793.37000000005</v>
+      </c>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3">
+        <v>3309415.8500000006</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -2236,12 +2263,15 @@
       <c r="Q13" s="3">
         <v>318028.02000000014</v>
       </c>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3">
-        <v>3178395.378</v>
+      <c r="R13" s="3">
+        <v>267301.83999999997</v>
+      </c>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3">
+        <v>3445697.2179999999</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -2291,12 +2321,15 @@
       <c r="Q14" s="3">
         <v>244707.15000000002</v>
       </c>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3">
-        <v>3067226.3028000006</v>
+      <c r="R14" s="3">
+        <v>203624.17999999996</v>
+      </c>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3">
+        <v>3270850.4828000008</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
@@ -2310,10 +2343,10 @@
         <v>2267616.5508000008</v>
       </c>
       <c r="E15" s="3">
-        <v>2382521.2804999999</v>
+        <v>2382521.2805999997</v>
       </c>
       <c r="F15" s="3">
-        <v>2407374.2800000007</v>
+        <v>2407374.2800000012</v>
       </c>
       <c r="G15" s="3">
         <v>2096886.77</v>
@@ -2322,7 +2355,7 @@
         <v>2323869.1599999997</v>
       </c>
       <c r="I15" s="3">
-        <v>2092970.6400000004</v>
+        <v>2092970.64</v>
       </c>
       <c r="J15" s="3">
         <v>2575960.8700000006</v>
@@ -2334,10 +2367,10 @@
         <v>2651350.06</v>
       </c>
       <c r="M15" s="3">
-        <v>3145227.9999999991</v>
+        <v>3145227.9999999995</v>
       </c>
       <c r="N15" s="3">
-        <v>3371283.67</v>
+        <v>3371283.669999999</v>
       </c>
       <c r="O15" s="3">
         <v>1277042.08</v>
@@ -2346,13 +2379,16 @@
         <v>2740495.18</v>
       </c>
       <c r="Q15" s="3">
-        <v>2622136.75</v>
+        <v>2612380.5</v>
       </c>
       <c r="R15" s="3">
-        <v>2265412.6799999997</v>
+        <v>2876953.11</v>
       </c>
       <c r="S15" s="3">
-        <v>37328943.931299962</v>
+        <v>418057.22</v>
+      </c>
+      <c r="T15" s="3">
+        <v>38348785.33139997</v>
       </c>
     </row>
   </sheetData>

--- a/src/OLAP/DataSources/BSV.Profit.xlsx
+++ b/src/OLAP/DataSources/BSV.Profit.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\git\Luxena.Travel\src\OLAP\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92603397-4D4D-4841-A2D0-F347230749EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B80001-FB88-46CF-A8EC-A83924BE80CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BSV OLAP" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179021"/>
   <pivotCaches>
-    <pivotCache cacheId="176" r:id="rId2"/>
+    <pivotCache cacheId="59" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -704,7 +704,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="45334.432002314818" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF10000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="45357.38844224537" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF10000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Доход]" caption="Доход" numFmtId="0" hierarchy="115" level="32767"/>
@@ -949,7 +949,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="176" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="59" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A1:T15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -1697,10 +1697,10 @@
         <v>234716.33999999997</v>
       </c>
       <c r="S3" s="3">
-        <v>293875.63999999996</v>
+        <v>293825.63999999996</v>
       </c>
       <c r="T3" s="3">
-        <v>2981372.6413999996</v>
+        <v>2981322.6413999996</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.45">
@@ -1755,10 +1755,10 @@
         <v>145166.68</v>
       </c>
       <c r="S4" s="3">
-        <v>124181.58000000003</v>
+        <v>270479.12000000005</v>
       </c>
       <c r="T4" s="3">
-        <v>3131469.2316999994</v>
+        <v>3277766.7716999995</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.45">
@@ -1812,9 +1812,11 @@
       <c r="R5" s="3">
         <v>225543.89000000004</v>
       </c>
-      <c r="S5" s="3"/>
+      <c r="S5" s="3">
+        <v>10859</v>
+      </c>
       <c r="T5" s="3">
-        <v>3104044.7411000002</v>
+        <v>3114903.7411000002</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.45">
@@ -2385,10 +2387,10 @@
         <v>2876953.11</v>
       </c>
       <c r="S15" s="3">
-        <v>418057.22</v>
+        <v>575163.76</v>
       </c>
       <c r="T15" s="3">
-        <v>38348785.33139997</v>
+        <v>38505891.871399969</v>
       </c>
     </row>
   </sheetData>

--- a/src/OLAP/DataSources/BSV.Profit.xlsx
+++ b/src/OLAP/DataSources/BSV.Profit.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\git\Luxena.Travel\src\OLAP\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B80001-FB88-46CF-A8EC-A83924BE80CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FE77CF-EA1B-4312-B180-EB8EACB88E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BSV OLAP" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179021"/>
   <pivotCaches>
-    <pivotCache cacheId="59" r:id="rId2"/>
+    <pivotCache cacheId="6" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -704,7 +704,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="45357.38844224537" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF10000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="45366.345214583336" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF10000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Доход]" caption="Доход" numFmtId="0" hierarchy="115" level="32767"/>
@@ -949,7 +949,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="59" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A1:T15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -1542,40 +1542,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
       <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.06640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="18" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.61328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.3828125" bestFit="1" customWidth="1"/>
+    <col min="4" max="18" width="12.921875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.3828125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.921875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.3046875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.921875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.3046875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.921875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.3046875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.921875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.3046875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.921875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.3046875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.921875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.3046875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.921875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.3046875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.921875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.3046875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.3828125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.3046875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.921875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="17.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>2981322.6413999996</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>3277766.7716999995</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
@@ -1813,13 +1813,13 @@
         <v>225543.89000000004</v>
       </c>
       <c r="S5" s="3">
-        <v>10859</v>
+        <v>58909.479999999996</v>
       </c>
       <c r="T5" s="3">
-        <v>3114903.7411000002</v>
+        <v>3162954.2211000002</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>2870291.7854999993</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>3045934.8309999993</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>3217537.3862000005</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>3237495.6582000004</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>3265921.0055000004</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>3468754.5000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>3309415.8500000006</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>3445697.2179999999</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>3270850.4828000008</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
@@ -2387,10 +2387,10 @@
         <v>2876953.11</v>
       </c>
       <c r="S15" s="3">
-        <v>575163.76</v>
+        <v>623214.24</v>
       </c>
       <c r="T15" s="3">
-        <v>38505891.871399969</v>
+        <v>38553942.351399966</v>
       </c>
     </row>
   </sheetData>

--- a/src/OLAP/DataSources/BSV.Profit.xlsx
+++ b/src/OLAP/DataSources/BSV.Profit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\git\Luxena.Travel\src\OLAP\DataSources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FE77CF-EA1B-4312-B180-EB8EACB88E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE9D19C-B4CF-4DBC-8E74-2F892AB085ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BSV OLAP" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Доход</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>2024</t>
+  </si>
+  <si>
+    <t>2025</t>
   </si>
 </sst>
 </file>
@@ -704,12 +707,12 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Денис Сахошко" refreshedDate="45366.345214583336" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF10000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="nestor" refreshedDate="45667.814202777779" backgroundQuery="1" createdVersion="6" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF10000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Measures].[Доход]" caption="Доход" numFmtId="0" hierarchy="115" level="32767"/>
     <cacheField name="[Дата].[Год].[Год]" caption="Год" numFmtId="0" hierarchy="16" level="1">
-      <sharedItems count="18">
+      <sharedItems count="19">
         <s v="[Дата].[Год].&amp;[2007]" c="2007"/>
         <s v="[Дата].[Год].&amp;[2008]" c="2008"/>
         <s v="[Дата].[Год].&amp;[2009]" c="2009"/>
@@ -728,6 +731,7 @@
         <s v="[Дата].[Год].&amp;[2022]" c="2022"/>
         <s v="[Дата].[Год].&amp;[2023]" c="2023"/>
         <s v="[Дата].[Год].&amp;[2024]" c="2024"/>
+        <s v="[Дата].[Год].&amp;[2025]" c="2025"/>
       </sharedItems>
     </cacheField>
     <cacheField name="[Дата].[Месяц].[Месяц]" caption="Месяц" numFmtId="0" hierarchy="20" level="1">
@@ -950,11 +954,11 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Сводная таблица1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A1:T15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <location ref="A1:U15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisCol" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
-      <items count="18">
+      <items count="19">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -973,6 +977,7 @@
         <item x="15"/>
         <item x="16"/>
         <item x="17"/>
+        <item x="18"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -1039,7 +1044,7 @@
   <colFields count="1">
     <field x="1"/>
   </colFields>
-  <colItems count="19">
+  <colItems count="20">
     <i>
       <x/>
     </i>
@@ -1093,6 +1098,9 @@
     </i>
     <i>
       <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
     </i>
     <i t="grand">
       <x/>
@@ -1540,42 +1548,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
       <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.61328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.3828125" bestFit="1" customWidth="1"/>
-    <col min="4" max="18" width="12.921875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.3828125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.921875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.3046875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.921875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.3046875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.921875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.3046875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.921875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.3046875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.921875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.3046875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.921875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.3046875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.921875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.3046875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.921875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.3046875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.3828125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.3046875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13.921875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="17.69140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="19" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="18.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1583,7 +1592,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1642,10 +1651,13 @@
         <v>33</v>
       </c>
       <c r="T2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -1661,19 +1673,19 @@
         <v>159720.46999999997</v>
       </c>
       <c r="G3" s="3">
-        <v>147334.36999999988</v>
+        <v>147334.36999999985</v>
       </c>
       <c r="H3" s="3">
         <v>135527.3900000001</v>
       </c>
       <c r="I3" s="3">
-        <v>158399.56999999986</v>
+        <v>158399.56999999983</v>
       </c>
       <c r="J3" s="3">
         <v>138337.67000000004</v>
       </c>
       <c r="K3" s="3">
-        <v>217155.08</v>
+        <v>217155.08000000005</v>
       </c>
       <c r="L3" s="3">
         <v>153573.61999999997</v>
@@ -1697,13 +1709,16 @@
         <v>234716.33999999997</v>
       </c>
       <c r="S3" s="3">
-        <v>293825.63999999996</v>
+        <v>293236.64</v>
       </c>
       <c r="T3" s="3">
-        <v>2981322.6413999996</v>
+        <v>105460.03</v>
+      </c>
+      <c r="U3" s="3">
+        <v>3086193.6713999999</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -1713,7 +1728,7 @@
         <v>171214.22999999981</v>
       </c>
       <c r="E4" s="3">
-        <v>143976.9617000001</v>
+        <v>143976.96170000007</v>
       </c>
       <c r="F4" s="3">
         <v>203352.66000000003</v>
@@ -1731,7 +1746,7 @@
         <v>146279.16000000003</v>
       </c>
       <c r="K4" s="3">
-        <v>221731.4499999999</v>
+        <v>221731.44999999992</v>
       </c>
       <c r="L4" s="3">
         <v>211288.27</v>
@@ -1743,7 +1758,7 @@
         <v>266018.27999999997</v>
       </c>
       <c r="O4" s="3">
-        <v>345609.78000000009</v>
+        <v>345609.78000000014</v>
       </c>
       <c r="P4" s="3">
         <v>117972.26000000001</v>
@@ -1755,13 +1770,14 @@
         <v>145166.68</v>
       </c>
       <c r="S4" s="3">
-        <v>270479.12000000005</v>
-      </c>
-      <c r="T4" s="3">
-        <v>3277766.7716999995</v>
+        <v>273181.68000000005</v>
+      </c>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3">
+        <v>3280469.3317000004</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
@@ -1789,7 +1805,7 @@
         <v>307481.68</v>
       </c>
       <c r="K5" s="3">
-        <v>266700.42999999993</v>
+        <v>266700.43</v>
       </c>
       <c r="L5" s="3">
         <v>242577.98999999996</v>
@@ -1813,13 +1829,14 @@
         <v>225543.89000000004</v>
       </c>
       <c r="S5" s="3">
-        <v>58909.479999999996</v>
-      </c>
-      <c r="T5" s="3">
-        <v>3162954.2211000002</v>
+        <v>282230.57000000007</v>
+      </c>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3">
+        <v>3386275.3111000005</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
@@ -1832,13 +1849,13 @@
         <v>209012.66550000021</v>
       </c>
       <c r="F6" s="3">
-        <v>207835.58999999997</v>
+        <v>207835.58999999994</v>
       </c>
       <c r="G6" s="3">
         <v>171336.27000000005</v>
       </c>
       <c r="H6" s="3">
-        <v>202298.94000000006</v>
+        <v>202298.94000000009</v>
       </c>
       <c r="I6" s="3">
         <v>131881.42999999991</v>
@@ -1847,7 +1864,7 @@
         <v>170653.72999999998</v>
       </c>
       <c r="K6" s="3">
-        <v>285748.5199999999</v>
+        <v>285748.51999999996</v>
       </c>
       <c r="L6" s="3">
         <v>189911.27999999991</v>
@@ -1870,12 +1887,15 @@
       <c r="R6" s="3">
         <v>243894.32000000004</v>
       </c>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3">
-        <v>2870291.7854999993</v>
+      <c r="S6" s="3">
+        <v>521720.68</v>
+      </c>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3">
+        <v>3392012.4654999995</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
@@ -1885,16 +1905,16 @@
         <v>193026.19000000009</v>
       </c>
       <c r="E7" s="3">
-        <v>199267.42100000015</v>
+        <v>199267.42100000012</v>
       </c>
       <c r="F7" s="3">
-        <v>176186.43000000008</v>
+        <v>176186.43000000005</v>
       </c>
       <c r="G7" s="3">
         <v>175477.80999999988</v>
       </c>
       <c r="H7" s="3">
-        <v>189204.38999999987</v>
+        <v>189204.3899999999</v>
       </c>
       <c r="I7" s="3">
         <v>174793.39999999991</v>
@@ -1906,7 +1926,7 @@
         <v>290242.9699999998</v>
       </c>
       <c r="L7" s="3">
-        <v>224334.05999999994</v>
+        <v>224334.05999999997</v>
       </c>
       <c r="M7" s="3">
         <v>259558.20999999988</v>
@@ -1926,12 +1946,15 @@
       <c r="R7" s="3">
         <v>247335.72000000003</v>
       </c>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3">
-        <v>3045934.8309999993</v>
+      <c r="S7" s="3">
+        <v>248740.34000000003</v>
+      </c>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3">
+        <v>3294675.1709999996</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -1944,13 +1967,13 @@
         <v>208721.0261999997</v>
       </c>
       <c r="F8" s="3">
-        <v>186839.10000000015</v>
+        <v>186839.10000000018</v>
       </c>
       <c r="G8" s="3">
         <v>166299.09000000011</v>
       </c>
       <c r="H8" s="3">
-        <v>216029.19000000006</v>
+        <v>216029.19000000003</v>
       </c>
       <c r="I8" s="3">
         <v>150551.39000000001</v>
@@ -1962,7 +1985,7 @@
         <v>237637.53000000026</v>
       </c>
       <c r="L8" s="3">
-        <v>202339.77000000008</v>
+        <v>202339.77000000005</v>
       </c>
       <c r="M8" s="3">
         <v>238854.18999999989</v>
@@ -1982,12 +2005,15 @@
       <c r="R8" s="3">
         <v>332395.46999999991</v>
       </c>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3">
-        <v>3217537.3862000005</v>
+      <c r="S8" s="3">
+        <v>498776.56</v>
+      </c>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3">
+        <v>3716313.9462000006</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
@@ -2009,13 +2035,13 @@
         <v>225020.98999999987</v>
       </c>
       <c r="I9" s="3">
-        <v>216037.83000000002</v>
+        <v>216037.83</v>
       </c>
       <c r="J9" s="3">
-        <v>249565.57999999993</v>
+        <v>249565.57999999996</v>
       </c>
       <c r="K9" s="3">
-        <v>267975.60000000027</v>
+        <v>267975.60000000033</v>
       </c>
       <c r="L9" s="3">
         <v>183779.88000000006</v>
@@ -2033,17 +2059,20 @@
         <v>219063.50000000006</v>
       </c>
       <c r="Q9" s="3">
-        <v>229802.09000000008</v>
+        <v>229802.09000000023</v>
       </c>
       <c r="R9" s="3">
         <v>232593.07</v>
       </c>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3">
-        <v>3237495.6582000004</v>
+      <c r="S9" s="3">
+        <v>223534.53000000003</v>
+      </c>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3">
+        <v>3461030.1882000007</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
@@ -2053,7 +2082,7 @@
         <v>182727.50000000017</v>
       </c>
       <c r="E10" s="3">
-        <v>204497.72549999991</v>
+        <v>204497.72549999994</v>
       </c>
       <c r="F10" s="3">
         <v>203716.70000000022</v>
@@ -2068,10 +2097,10 @@
         <v>158310.23000000019</v>
       </c>
       <c r="J10" s="3">
-        <v>276168.66000000003</v>
+        <v>276168.66000000009</v>
       </c>
       <c r="K10" s="3">
-        <v>226600.16000000021</v>
+        <v>226600.16000000024</v>
       </c>
       <c r="L10" s="3">
         <v>186602.12999999998</v>
@@ -2080,7 +2109,7 @@
         <v>264097.85999999993</v>
       </c>
       <c r="N10" s="3">
-        <v>334241.25999999989</v>
+        <v>334241.25999999983</v>
       </c>
       <c r="O10" s="3">
         <v>110102.69000000002</v>
@@ -2094,12 +2123,15 @@
       <c r="R10" s="3">
         <v>267727.15999999997</v>
       </c>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3">
-        <v>3265921.0055000004</v>
+      <c r="S10" s="3">
+        <v>246767.1</v>
+      </c>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3">
+        <v>3512688.1055000005</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -2120,16 +2152,16 @@
         <v>176833.4</v>
       </c>
       <c r="H11" s="3">
-        <v>211054.93999999986</v>
+        <v>211054.93999999983</v>
       </c>
       <c r="I11" s="3">
         <v>197472.96999999994</v>
       </c>
       <c r="J11" s="3">
-        <v>218498.73000000019</v>
+        <v>218498.73000000021</v>
       </c>
       <c r="K11" s="3">
-        <v>273871.35999999993</v>
+        <v>273871.35999999999</v>
       </c>
       <c r="L11" s="3">
         <v>259088.84000000014</v>
@@ -2152,12 +2184,15 @@
       <c r="R11" s="3">
         <v>296861.06999999989</v>
       </c>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3">
-        <v>3468754.5000000005</v>
+      <c r="S11" s="3">
+        <v>270965.68</v>
+      </c>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3">
+        <v>3739720.1800000006</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -2178,7 +2213,7 @@
         <v>195827.50000000003</v>
       </c>
       <c r="H12" s="3">
-        <v>210968.86999999991</v>
+        <v>210968.86999999988</v>
       </c>
       <c r="I12" s="3">
         <v>205239.66000000006</v>
@@ -2199,10 +2234,10 @@
         <v>274089.63999999996</v>
       </c>
       <c r="O12" s="3">
-        <v>108238.53000000001</v>
+        <v>108238.53</v>
       </c>
       <c r="P12" s="3">
-        <v>277349.87000000005</v>
+        <v>277349.87</v>
       </c>
       <c r="Q12" s="3">
         <v>253519.13</v>
@@ -2210,12 +2245,15 @@
       <c r="R12" s="3">
         <v>179793.37000000005</v>
       </c>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3">
-        <v>3309415.8500000006</v>
+      <c r="S12" s="3">
+        <v>381026.30999999976</v>
+      </c>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3">
+        <v>3690442.16</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -2227,13 +2265,13 @@
         <v>188209.63799999998</v>
       </c>
       <c r="E13" s="3">
-        <v>186037.63999999981</v>
+        <v>186037.63999999978</v>
       </c>
       <c r="F13" s="3">
         <v>190891.72000000006</v>
       </c>
       <c r="G13" s="3">
-        <v>172841.88000000003</v>
+        <v>172841.88000000006</v>
       </c>
       <c r="H13" s="3">
         <v>223204.42999999985</v>
@@ -2254,7 +2292,7 @@
         <v>314023.31000000011</v>
       </c>
       <c r="N13" s="3">
-        <v>287342.68000000005</v>
+        <v>287342.68000000011</v>
       </c>
       <c r="O13" s="3">
         <v>59804.30999999999</v>
@@ -2268,12 +2306,15 @@
       <c r="R13" s="3">
         <v>267301.83999999997</v>
       </c>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3">
-        <v>3445697.2179999999</v>
+      <c r="S13" s="3">
+        <v>265053</v>
+      </c>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3">
+        <v>3710750.2179999999</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -2291,7 +2332,7 @@
         <v>194017.46000000002</v>
       </c>
       <c r="G14" s="3">
-        <v>122079.25999999989</v>
+        <v>122079.25999999991</v>
       </c>
       <c r="H14" s="3">
         <v>181374.58999999985</v>
@@ -2303,7 +2344,7 @@
         <v>236770.01000000018</v>
       </c>
       <c r="K14" s="3">
-        <v>146546.82000000007</v>
+        <v>146546.82000000004</v>
       </c>
       <c r="L14" s="3">
         <v>240459.76</v>
@@ -2326,12 +2367,15 @@
       <c r="R14" s="3">
         <v>203624.17999999996</v>
       </c>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3">
-        <v>3270850.4828000008</v>
+      <c r="S14" s="3">
+        <v>209979.65</v>
+      </c>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3">
+        <v>3480830.1328000007</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
@@ -2345,10 +2389,10 @@
         <v>2267616.5508000008</v>
       </c>
       <c r="E15" s="3">
-        <v>2382521.2805999997</v>
+        <v>2382521.2806000002</v>
       </c>
       <c r="F15" s="3">
-        <v>2407374.2800000012</v>
+        <v>2407374.2800000007</v>
       </c>
       <c r="G15" s="3">
         <v>2096886.77</v>
@@ -2357,10 +2401,10 @@
         <v>2323869.1599999997</v>
       </c>
       <c r="I15" s="3">
-        <v>2092970.64</v>
+        <v>2092970.6400000001</v>
       </c>
       <c r="J15" s="3">
-        <v>2575960.8700000006</v>
+        <v>2575960.870000001</v>
       </c>
       <c r="K15" s="3">
         <v>2959632.16</v>
@@ -2372,7 +2416,7 @@
         <v>3145227.9999999995</v>
       </c>
       <c r="N15" s="3">
-        <v>3371283.669999999</v>
+        <v>3371283.67</v>
       </c>
       <c r="O15" s="3">
         <v>1277042.08</v>
@@ -2381,16 +2425,19 @@
         <v>2740495.18</v>
       </c>
       <c r="Q15" s="3">
-        <v>2612380.5</v>
+        <v>2612380.5000000009</v>
       </c>
       <c r="R15" s="3">
         <v>2876953.11</v>
       </c>
       <c r="S15" s="3">
-        <v>623214.24</v>
+        <v>3715212.7399999998</v>
       </c>
       <c r="T15" s="3">
-        <v>38553942.351399966</v>
+        <v>105460.03</v>
+      </c>
+      <c r="U15" s="3">
+        <v>41751400.881399982</v>
       </c>
     </row>
   </sheetData>
